--- a/to graph.xlsx
+++ b/to graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>OCC_TITLE</t>
   </si>
@@ -57,6 +57,69 @@
     <t>2023</t>
   </si>
   <si>
+    <t xml:space="preserve">        Air traffic controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nuclear power reactor operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Commercial pilots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Power distributors and dispatchers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Elevator and escalator installers and repairers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Nuclear technicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Radiation therapists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Power plant operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Electrical and electronics repairers, powerhouse, substation, and relay</t>
+  </si>
+  <si>
+    <t>Maintenance and repair workers, general</t>
+  </si>
+  <si>
+    <t>Cooks, restaurant</t>
+  </si>
+  <si>
+    <t>Nursing assistants</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Medical assistants</t>
+  </si>
+  <si>
+    <t>First-line supervisors of construction trades and extraction workers</t>
+  </si>
+  <si>
+    <t>Electricians</t>
+  </si>
+  <si>
+    <t>Licensed practical and licensed vocational nurses</t>
+  </si>
+  <si>
+    <t>First-line supervisors of production and operating workers</t>
+  </si>
+  <si>
+    <t>Hairdressers, hairstylists, and cosmetologists</t>
+  </si>
+  <si>
+    <t>Annual Median Wage  Top 10 by 2023</t>
+  </si>
+  <si>
+    <t>Total Employment Top 10 by 2032 (including first-line supervisors)</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Maintenance and repair workers, general</t>
   </si>
   <si>
@@ -81,47 +144,20 @@
     <t xml:space="preserve">        Hairdressers, hairstylists, and cosmetologists</t>
   </si>
   <si>
-    <t>Hairdressers, hairstylists, and cosmetologists</t>
-  </si>
-  <si>
-    <t>Maintenance and repair workers, general</t>
-  </si>
-  <si>
-    <t>Cooks, restaurant</t>
-  </si>
-  <si>
-    <t>Nursing assistants</t>
-  </si>
-  <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
-    <t>Medical assistants</t>
-  </si>
-  <si>
-    <t>First-line supervisors of construction trades and extraction workers</t>
-  </si>
-  <si>
-    <t>Electricians</t>
-  </si>
-  <si>
-    <t>Licensed practical and licensed vocational nurses</t>
-  </si>
-  <si>
-    <t>First-line supervisors of production and operating workers</t>
+    <t xml:space="preserve">        Plumbers, pipefitters, and steamfitters</t>
   </si>
   <si>
     <t xml:space="preserve">        Pharmacy technicians</t>
   </si>
   <si>
-    <t xml:space="preserve">        Plumbers, pipefitters, and steamfitters</t>
+    <t>Total Employment Top 10 by 2032 (excluding first-line supervisors)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +169,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,9 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,408 +500,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>1249080</v>
-      </c>
-      <c r="C2">
-        <v>1282920</v>
-      </c>
-      <c r="D2">
-        <v>1314560</v>
-      </c>
-      <c r="E2">
-        <v>1332480</v>
-      </c>
-      <c r="F2">
-        <v>1351210</v>
-      </c>
-      <c r="G2">
-        <v>1384240</v>
-      </c>
-      <c r="H2">
-        <v>1418990</v>
-      </c>
-      <c r="I2">
-        <v>1357630</v>
-      </c>
-      <c r="J2">
-        <v>1416740</v>
-      </c>
-      <c r="K2">
-        <v>1485990</v>
-      </c>
-      <c r="L2">
-        <v>1503150</v>
-      </c>
-      <c r="M2">
-        <v>1664400</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1057550</v>
+        <v>121280</v>
       </c>
       <c r="C3">
-        <v>1104790</v>
+        <v>122340</v>
       </c>
       <c r="D3">
-        <v>1150760</v>
+        <v>122950</v>
       </c>
       <c r="E3">
-        <v>1217370</v>
+        <v>122410</v>
       </c>
       <c r="F3">
-        <v>1276510</v>
+        <v>124540</v>
       </c>
       <c r="G3">
-        <v>1340810</v>
+        <v>124540</v>
       </c>
       <c r="H3">
-        <v>1401890</v>
+        <v>122990</v>
       </c>
       <c r="I3">
-        <v>1109650</v>
+        <v>130420</v>
       </c>
       <c r="J3">
-        <v>1193860</v>
+        <v>129750</v>
       </c>
       <c r="K3">
-        <v>1321480</v>
+        <v>132250</v>
       </c>
       <c r="L3">
-        <v>1412350</v>
-      </c>
-      <c r="M3">
-        <v>1638900</v>
+        <v>137380</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>78350</v>
+      </c>
+      <c r="C4">
+        <v>82500</v>
+      </c>
+      <c r="D4">
+        <v>88560</v>
+      </c>
+      <c r="E4">
+        <v>91170</v>
+      </c>
+      <c r="F4">
+        <v>93370</v>
+      </c>
+      <c r="G4">
+        <v>94350</v>
       </c>
       <c r="H4">
-        <v>1419920</v>
+        <v>100530</v>
       </c>
       <c r="I4">
-        <v>1371050</v>
+        <v>104040</v>
       </c>
       <c r="J4">
-        <v>1314830</v>
+        <v>104260</v>
       </c>
       <c r="K4">
-        <v>1310090</v>
+        <v>115870</v>
       </c>
       <c r="L4">
-        <v>1351760</v>
-      </c>
-      <c r="M4">
-        <v>1417800</v>
+        <v>120350</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>580570</v>
+        <v>74470</v>
       </c>
       <c r="C5">
-        <v>617060</v>
+        <v>75620</v>
       </c>
       <c r="D5">
-        <v>639190</v>
+        <v>76150</v>
       </c>
       <c r="E5">
-        <v>676980</v>
+        <v>77200</v>
       </c>
       <c r="F5">
-        <v>693050</v>
+        <v>78740</v>
       </c>
       <c r="G5">
-        <v>718730</v>
+        <v>82240</v>
       </c>
       <c r="H5">
-        <v>734170</v>
+        <v>86080</v>
       </c>
       <c r="I5">
-        <v>699300</v>
+        <v>93300</v>
       </c>
       <c r="J5">
-        <v>668060</v>
+        <v>99640</v>
       </c>
       <c r="K5">
-        <v>689770</v>
+        <v>103910</v>
       </c>
       <c r="L5">
-        <v>700290</v>
-      </c>
-      <c r="M5">
-        <v>964900</v>
+        <v>113080</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>571690</v>
+        <v>75080</v>
       </c>
       <c r="C6">
-        <v>584970</v>
+        <v>78240</v>
       </c>
       <c r="D6">
-        <v>601240</v>
+        <v>80840</v>
       </c>
       <c r="E6">
-        <v>623560</v>
+        <v>81900</v>
       </c>
       <c r="F6">
-        <v>646320</v>
+        <v>82510</v>
       </c>
       <c r="G6">
-        <v>673660</v>
+        <v>86410</v>
       </c>
       <c r="H6">
-        <v>712430</v>
+        <v>90700</v>
       </c>
       <c r="I6">
-        <v>710200</v>
+        <v>95100</v>
       </c>
       <c r="J6">
-        <v>727760</v>
+        <v>98530</v>
       </c>
       <c r="K6">
-        <v>752460</v>
+        <v>101650</v>
       </c>
       <c r="L6">
-        <v>763040</v>
-      </c>
-      <c r="M6">
-        <v>870200</v>
+        <v>104750</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>467130</v>
+        <v>78640</v>
       </c>
       <c r="C7">
-        <v>496370</v>
+        <v>78620</v>
       </c>
       <c r="D7">
-        <v>517560</v>
+        <v>80870</v>
       </c>
       <c r="E7">
-        <v>538220</v>
+        <v>78890</v>
       </c>
       <c r="F7">
-        <v>556300</v>
+        <v>79480</v>
       </c>
       <c r="G7">
-        <v>598210</v>
+        <v>79780</v>
       </c>
       <c r="H7">
-        <v>626180</v>
+        <v>84990</v>
       </c>
       <c r="I7">
-        <v>614080</v>
+        <v>88540</v>
       </c>
       <c r="J7">
-        <v>665870</v>
+        <v>97860</v>
       </c>
       <c r="K7">
-        <v>720900</v>
+        <v>99000</v>
       </c>
       <c r="L7">
-        <v>777420</v>
-      </c>
-      <c r="M7">
-        <v>830300</v>
+        <v>102420</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>542680</v>
+        <v>72610</v>
       </c>
       <c r="C8">
-        <v>566930</v>
+        <v>74690</v>
       </c>
       <c r="D8">
-        <v>592230</v>
+        <v>80260</v>
       </c>
       <c r="E8">
-        <v>607120</v>
+        <v>79140</v>
       </c>
       <c r="F8">
-        <v>631080</v>
+        <v>80370</v>
       </c>
       <c r="G8">
-        <v>655840</v>
+        <v>79140</v>
       </c>
       <c r="H8">
-        <v>688620</v>
+        <v>82080</v>
       </c>
       <c r="I8">
-        <v>656510</v>
+        <v>84190</v>
       </c>
       <c r="J8">
-        <v>650580</v>
+        <v>99340</v>
       </c>
       <c r="K8">
-        <v>690050</v>
+        <v>100420</v>
       </c>
       <c r="L8">
-        <v>712580</v>
-      </c>
-      <c r="M8">
-        <v>811800</v>
+        <v>101740</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>705200</v>
+        <v>79140</v>
       </c>
       <c r="C9">
-        <v>695610</v>
+        <v>80090</v>
       </c>
       <c r="D9">
-        <v>697250</v>
+        <v>80220</v>
       </c>
       <c r="E9">
-        <v>702400</v>
+        <v>80160</v>
       </c>
       <c r="F9">
-        <v>702700</v>
+        <v>80570</v>
       </c>
       <c r="G9">
-        <v>701690</v>
+        <v>82330</v>
       </c>
       <c r="H9">
-        <v>697510</v>
+        <v>85560</v>
       </c>
       <c r="I9">
-        <v>676440</v>
+        <v>86850</v>
       </c>
       <c r="J9">
-        <v>641240</v>
+        <v>82790</v>
       </c>
       <c r="K9">
-        <v>632020</v>
+        <v>89530</v>
       </c>
       <c r="L9">
-        <v>630250</v>
-      </c>
-      <c r="M9">
-        <v>689900</v>
+        <v>98300</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>580620</v>
+        <v>68100</v>
       </c>
       <c r="C10">
-        <v>592830</v>
+        <v>70070</v>
       </c>
       <c r="D10">
-        <v>603080</v>
+        <v>71940</v>
       </c>
       <c r="E10">
-        <v>610480</v>
+        <v>74690</v>
       </c>
       <c r="F10">
-        <v>611800</v>
+        <v>77180</v>
       </c>
       <c r="G10">
-        <v>622790</v>
+        <v>79610</v>
       </c>
       <c r="H10">
-        <v>631100</v>
+        <v>81990</v>
       </c>
       <c r="I10">
-        <v>599900</v>
+        <v>84650</v>
       </c>
       <c r="J10">
-        <v>629420</v>
+        <v>80850</v>
       </c>
       <c r="K10">
-        <v>659930</v>
+        <v>93060</v>
       </c>
       <c r="L10">
-        <v>671160</v>
-      </c>
-      <c r="M10">
-        <v>683700</v>
+        <v>97010</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -864,909 +863,917 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>351960</v>
+        <v>69720</v>
       </c>
       <c r="C11">
-        <v>343140</v>
+        <v>71400</v>
       </c>
       <c r="D11">
-        <v>348010</v>
+        <v>73810</v>
       </c>
       <c r="E11">
-        <v>352380</v>
+        <v>75670</v>
       </c>
       <c r="F11">
-        <v>351910</v>
+        <v>78410</v>
       </c>
       <c r="G11">
-        <v>377210</v>
+        <v>80200</v>
       </c>
       <c r="H11">
-        <v>385960</v>
+        <v>82780</v>
       </c>
       <c r="I11">
-        <v>302410</v>
+        <v>85340</v>
       </c>
       <c r="J11">
-        <v>285980</v>
+        <v>93420</v>
       </c>
       <c r="K11">
-        <v>298050</v>
+        <v>93720</v>
       </c>
       <c r="L11">
-        <v>294840</v>
-      </c>
-      <c r="M11">
-        <v>598600</v>
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2032</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2032</v>
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1249080</v>
+      </c>
+      <c r="C15">
+        <v>1282920</v>
+      </c>
+      <c r="D15">
+        <v>1314560</v>
+      </c>
+      <c r="E15">
+        <v>1332480</v>
+      </c>
+      <c r="F15">
+        <v>1351210</v>
+      </c>
+      <c r="G15">
+        <v>1384240</v>
+      </c>
+      <c r="H15">
+        <v>1418990</v>
+      </c>
+      <c r="I15">
+        <v>1357630</v>
+      </c>
+      <c r="J15">
+        <v>1416740</v>
+      </c>
+      <c r="K15">
+        <v>1485990</v>
+      </c>
+      <c r="L15">
+        <v>1503150</v>
+      </c>
+      <c r="M15">
+        <v>1664400</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>1249080</v>
+        <v>1057550</v>
       </c>
       <c r="C16">
-        <v>1282920</v>
+        <v>1104790</v>
       </c>
       <c r="D16">
-        <v>1314560</v>
+        <v>1150760</v>
       </c>
       <c r="E16">
-        <v>1332480</v>
+        <v>1217370</v>
       </c>
       <c r="F16">
-        <v>1351210</v>
+        <v>1276510</v>
       </c>
       <c r="G16">
-        <v>1384240</v>
+        <v>1340810</v>
       </c>
       <c r="H16">
-        <v>1418990</v>
+        <v>1401890</v>
       </c>
       <c r="I16">
-        <v>1357630</v>
+        <v>1109650</v>
       </c>
       <c r="J16">
-        <v>1416740</v>
+        <v>1193860</v>
       </c>
       <c r="K16">
-        <v>1485990</v>
+        <v>1321480</v>
       </c>
       <c r="L16">
-        <v>1503150</v>
+        <v>1412350</v>
       </c>
       <c r="M16">
-        <v>1664400</v>
+        <v>1638900</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1057550</v>
-      </c>
-      <c r="C17">
-        <v>1104790</v>
-      </c>
-      <c r="D17">
-        <v>1150760</v>
-      </c>
-      <c r="E17">
-        <v>1217370</v>
-      </c>
-      <c r="F17">
-        <v>1276510</v>
-      </c>
-      <c r="G17">
-        <v>1340810</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>1401890</v>
+        <v>1419920</v>
       </c>
       <c r="I17">
-        <v>1109650</v>
+        <v>1371050</v>
       </c>
       <c r="J17">
-        <v>1193860</v>
+        <v>1314830</v>
       </c>
       <c r="K17">
-        <v>1321480</v>
+        <v>1310090</v>
       </c>
       <c r="L17">
-        <v>1412350</v>
+        <v>1351760</v>
       </c>
       <c r="M17">
-        <v>1638900</v>
+        <v>1417800</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>580570</v>
+      </c>
+      <c r="C18">
+        <v>617060</v>
+      </c>
+      <c r="D18">
+        <v>639190</v>
+      </c>
+      <c r="E18">
+        <v>676980</v>
+      </c>
+      <c r="F18">
+        <v>693050</v>
+      </c>
+      <c r="G18">
+        <v>718730</v>
       </c>
       <c r="H18">
-        <v>1419920</v>
+        <v>734170</v>
       </c>
       <c r="I18">
-        <v>1371050</v>
+        <v>699300</v>
       </c>
       <c r="J18">
-        <v>1314830</v>
+        <v>668060</v>
       </c>
       <c r="K18">
-        <v>1310090</v>
+        <v>689770</v>
       </c>
       <c r="L18">
-        <v>1351760</v>
+        <v>700290</v>
       </c>
       <c r="M18">
-        <v>1417800</v>
+        <v>964900</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>580570</v>
+        <v>571690</v>
       </c>
       <c r="C19">
-        <v>617060</v>
+        <v>584970</v>
       </c>
       <c r="D19">
-        <v>639190</v>
+        <v>601240</v>
       </c>
       <c r="E19">
-        <v>676980</v>
+        <v>623560</v>
       </c>
       <c r="F19">
-        <v>693050</v>
+        <v>646320</v>
       </c>
       <c r="G19">
-        <v>718730</v>
+        <v>673660</v>
       </c>
       <c r="H19">
-        <v>734170</v>
+        <v>712430</v>
       </c>
       <c r="I19">
-        <v>699300</v>
+        <v>710200</v>
       </c>
       <c r="J19">
-        <v>668060</v>
+        <v>727760</v>
       </c>
       <c r="K19">
-        <v>689770</v>
+        <v>752460</v>
       </c>
       <c r="L19">
-        <v>700290</v>
+        <v>763040</v>
       </c>
       <c r="M19">
-        <v>964900</v>
+        <v>870200</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>571690</v>
+        <v>467130</v>
       </c>
       <c r="C20">
-        <v>584970</v>
+        <v>496370</v>
       </c>
       <c r="D20">
-        <v>601240</v>
+        <v>517560</v>
       </c>
       <c r="E20">
-        <v>623560</v>
+        <v>538220</v>
       </c>
       <c r="F20">
-        <v>646320</v>
+        <v>556300</v>
       </c>
       <c r="G20">
-        <v>673660</v>
+        <v>598210</v>
       </c>
       <c r="H20">
-        <v>712430</v>
+        <v>626180</v>
       </c>
       <c r="I20">
-        <v>710200</v>
+        <v>614080</v>
       </c>
       <c r="J20">
-        <v>727760</v>
+        <v>665870</v>
       </c>
       <c r="K20">
-        <v>752460</v>
+        <v>720900</v>
       </c>
       <c r="L20">
-        <v>763040</v>
+        <v>777420</v>
       </c>
       <c r="M20">
-        <v>870200</v>
+        <v>830300</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>467130</v>
+        <v>542680</v>
       </c>
       <c r="C21">
-        <v>496370</v>
+        <v>566930</v>
       </c>
       <c r="D21">
-        <v>517560</v>
+        <v>592230</v>
       </c>
       <c r="E21">
-        <v>538220</v>
+        <v>607120</v>
       </c>
       <c r="F21">
-        <v>556300</v>
+        <v>631080</v>
       </c>
       <c r="G21">
-        <v>598210</v>
+        <v>655840</v>
       </c>
       <c r="H21">
-        <v>626180</v>
+        <v>688620</v>
       </c>
       <c r="I21">
-        <v>614080</v>
+        <v>656510</v>
       </c>
       <c r="J21">
-        <v>665870</v>
+        <v>650580</v>
       </c>
       <c r="K21">
-        <v>720900</v>
+        <v>690050</v>
       </c>
       <c r="L21">
-        <v>777420</v>
+        <v>712580</v>
       </c>
       <c r="M21">
-        <v>830300</v>
+        <v>811800</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>542680</v>
+        <v>705200</v>
       </c>
       <c r="C22">
-        <v>566930</v>
+        <v>695610</v>
       </c>
       <c r="D22">
-        <v>592230</v>
+        <v>697250</v>
       </c>
       <c r="E22">
-        <v>607120</v>
+        <v>702400</v>
       </c>
       <c r="F22">
-        <v>631080</v>
+        <v>702700</v>
       </c>
       <c r="G22">
-        <v>655840</v>
+        <v>701690</v>
       </c>
       <c r="H22">
-        <v>688620</v>
+        <v>697510</v>
       </c>
       <c r="I22">
-        <v>656510</v>
+        <v>676440</v>
       </c>
       <c r="J22">
-        <v>650580</v>
+        <v>641240</v>
       </c>
       <c r="K22">
-        <v>690050</v>
+        <v>632020</v>
       </c>
       <c r="L22">
-        <v>712580</v>
+        <v>630250</v>
       </c>
       <c r="M22">
-        <v>811800</v>
+        <v>689900</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>705200</v>
+        <v>580620</v>
       </c>
       <c r="C23">
-        <v>695610</v>
+        <v>592830</v>
       </c>
       <c r="D23">
-        <v>697250</v>
+        <v>603080</v>
       </c>
       <c r="E23">
-        <v>702400</v>
+        <v>610480</v>
       </c>
       <c r="F23">
-        <v>702700</v>
+        <v>611800</v>
       </c>
       <c r="G23">
-        <v>701690</v>
+        <v>622790</v>
       </c>
       <c r="H23">
-        <v>697510</v>
+        <v>631100</v>
       </c>
       <c r="I23">
-        <v>676440</v>
+        <v>599900</v>
       </c>
       <c r="J23">
-        <v>641240</v>
+        <v>629420</v>
       </c>
       <c r="K23">
-        <v>632020</v>
+        <v>659930</v>
       </c>
       <c r="L23">
-        <v>630250</v>
+        <v>671160</v>
       </c>
       <c r="M23">
-        <v>689900</v>
+        <v>683700</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>580620</v>
+        <v>351960</v>
       </c>
       <c r="C24">
-        <v>592830</v>
+        <v>343140</v>
       </c>
       <c r="D24">
-        <v>603080</v>
+        <v>348010</v>
       </c>
       <c r="E24">
-        <v>610480</v>
+        <v>352380</v>
       </c>
       <c r="F24">
-        <v>611800</v>
+        <v>351910</v>
       </c>
       <c r="G24">
-        <v>622790</v>
+        <v>377210</v>
       </c>
       <c r="H24">
-        <v>631100</v>
+        <v>385960</v>
       </c>
       <c r="I24">
-        <v>599900</v>
+        <v>302410</v>
       </c>
       <c r="J24">
-        <v>629420</v>
+        <v>285980</v>
       </c>
       <c r="K24">
-        <v>659930</v>
+        <v>298050</v>
       </c>
       <c r="L24">
-        <v>671160</v>
+        <v>294840</v>
       </c>
       <c r="M24">
-        <v>683700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>351960</v>
-      </c>
-      <c r="C25">
-        <v>343140</v>
-      </c>
-      <c r="D25">
-        <v>348010</v>
-      </c>
-      <c r="E25">
-        <v>352380</v>
-      </c>
-      <c r="F25">
-        <v>351910</v>
-      </c>
-      <c r="G25">
-        <v>377210</v>
-      </c>
-      <c r="H25">
-        <v>385960</v>
-      </c>
-      <c r="I25">
-        <v>302410</v>
-      </c>
-      <c r="J25">
-        <v>285980</v>
-      </c>
-      <c r="K25">
-        <v>298050</v>
-      </c>
-      <c r="L25">
-        <v>294840</v>
-      </c>
-      <c r="M25">
         <v>598600</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1249080</v>
+      </c>
+      <c r="C28">
+        <v>1282920</v>
+      </c>
+      <c r="D28">
+        <v>1314560</v>
+      </c>
+      <c r="E28">
+        <v>1332480</v>
+      </c>
+      <c r="F28">
+        <v>1351210</v>
+      </c>
+      <c r="G28">
+        <v>1384240</v>
+      </c>
+      <c r="H28">
+        <v>1418990</v>
+      </c>
+      <c r="I28">
+        <v>1357630</v>
+      </c>
+      <c r="J28">
+        <v>1416740</v>
+      </c>
+      <c r="K28">
+        <v>1485990</v>
+      </c>
+      <c r="L28">
+        <v>1503150</v>
+      </c>
+      <c r="M28">
+        <v>1664400</v>
+      </c>
+    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="1">
-        <v>2032</v>
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1057550</v>
+      </c>
+      <c r="C29">
+        <v>1104790</v>
+      </c>
+      <c r="D29">
+        <v>1150760</v>
+      </c>
+      <c r="E29">
+        <v>1217370</v>
+      </c>
+      <c r="F29">
+        <v>1276510</v>
+      </c>
+      <c r="G29">
+        <v>1340810</v>
+      </c>
+      <c r="H29">
+        <v>1401890</v>
+      </c>
+      <c r="I29">
+        <v>1109650</v>
+      </c>
+      <c r="J29">
+        <v>1193860</v>
+      </c>
+      <c r="K29">
+        <v>1321480</v>
+      </c>
+      <c r="L29">
+        <v>1412350</v>
+      </c>
+      <c r="M29">
+        <v>1638900</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>1249080</v>
-      </c>
-      <c r="C30">
-        <v>1282920</v>
-      </c>
-      <c r="D30">
-        <v>1314560</v>
-      </c>
-      <c r="E30">
-        <v>1332480</v>
-      </c>
-      <c r="F30">
-        <v>1351210</v>
-      </c>
-      <c r="G30">
-        <v>1384240</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>1418990</v>
+        <v>1419920</v>
       </c>
       <c r="I30">
-        <v>1357630</v>
+        <v>1371050</v>
       </c>
       <c r="J30">
-        <v>1416740</v>
+        <v>1314830</v>
       </c>
       <c r="K30">
-        <v>1485990</v>
+        <v>1310090</v>
       </c>
       <c r="L30">
-        <v>1503150</v>
+        <v>1351760</v>
       </c>
       <c r="M30">
-        <v>1664400</v>
+        <v>1417800</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>1057550</v>
+        <v>580570</v>
       </c>
       <c r="C31">
-        <v>1104790</v>
+        <v>617060</v>
       </c>
       <c r="D31">
-        <v>1150760</v>
+        <v>639190</v>
       </c>
       <c r="E31">
-        <v>1217370</v>
+        <v>676980</v>
       </c>
       <c r="F31">
-        <v>1276510</v>
+        <v>693050</v>
       </c>
       <c r="G31">
-        <v>1340810</v>
+        <v>718730</v>
       </c>
       <c r="H31">
-        <v>1401890</v>
+        <v>734170</v>
       </c>
       <c r="I31">
-        <v>1109650</v>
+        <v>699300</v>
       </c>
       <c r="J31">
-        <v>1193860</v>
+        <v>668060</v>
       </c>
       <c r="K31">
-        <v>1321480</v>
+        <v>689770</v>
       </c>
       <c r="L31">
-        <v>1412350</v>
+        <v>700290</v>
       </c>
       <c r="M31">
-        <v>1638900</v>
+        <v>964900</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>571690</v>
+      </c>
+      <c r="C32">
+        <v>584970</v>
+      </c>
+      <c r="D32">
+        <v>601240</v>
+      </c>
+      <c r="E32">
+        <v>623560</v>
+      </c>
+      <c r="F32">
+        <v>646320</v>
+      </c>
+      <c r="G32">
+        <v>673660</v>
       </c>
       <c r="H32">
-        <v>1419920</v>
+        <v>712430</v>
       </c>
       <c r="I32">
-        <v>1371050</v>
+        <v>710200</v>
       </c>
       <c r="J32">
-        <v>1314830</v>
+        <v>727760</v>
       </c>
       <c r="K32">
-        <v>1310090</v>
+        <v>752460</v>
       </c>
       <c r="L32">
-        <v>1351760</v>
+        <v>763040</v>
       </c>
       <c r="M32">
-        <v>1417800</v>
+        <v>870200</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>580570</v>
+        <v>542680</v>
       </c>
       <c r="C33">
-        <v>617060</v>
+        <v>566930</v>
       </c>
       <c r="D33">
-        <v>639190</v>
+        <v>592230</v>
       </c>
       <c r="E33">
-        <v>676980</v>
+        <v>607120</v>
       </c>
       <c r="F33">
-        <v>693050</v>
+        <v>631080</v>
       </c>
       <c r="G33">
-        <v>718730</v>
+        <v>655840</v>
       </c>
       <c r="H33">
-        <v>734170</v>
+        <v>688620</v>
       </c>
       <c r="I33">
-        <v>699300</v>
+        <v>656510</v>
       </c>
       <c r="J33">
-        <v>668060</v>
+        <v>650580</v>
       </c>
       <c r="K33">
-        <v>689770</v>
+        <v>690050</v>
       </c>
       <c r="L33">
-        <v>700290</v>
+        <v>712580</v>
       </c>
       <c r="M33">
-        <v>964900</v>
+        <v>811800</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>571690</v>
+        <v>705200</v>
       </c>
       <c r="C34">
-        <v>584970</v>
+        <v>695610</v>
       </c>
       <c r="D34">
-        <v>601240</v>
+        <v>697250</v>
       </c>
       <c r="E34">
-        <v>623560</v>
+        <v>702400</v>
       </c>
       <c r="F34">
-        <v>646320</v>
+        <v>702700</v>
       </c>
       <c r="G34">
-        <v>673660</v>
+        <v>701690</v>
       </c>
       <c r="H34">
-        <v>712430</v>
+        <v>697510</v>
       </c>
       <c r="I34">
-        <v>710200</v>
+        <v>676440</v>
       </c>
       <c r="J34">
-        <v>727760</v>
+        <v>641240</v>
       </c>
       <c r="K34">
-        <v>752460</v>
+        <v>632020</v>
       </c>
       <c r="L34">
-        <v>763040</v>
+        <v>630250</v>
       </c>
       <c r="M34">
-        <v>870200</v>
+        <v>689900</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>542680</v>
+        <v>351960</v>
       </c>
       <c r="C35">
-        <v>566930</v>
+        <v>343140</v>
       </c>
       <c r="D35">
-        <v>592230</v>
+        <v>348010</v>
       </c>
       <c r="E35">
-        <v>607120</v>
+        <v>352380</v>
       </c>
       <c r="F35">
-        <v>631080</v>
+        <v>351910</v>
       </c>
       <c r="G35">
-        <v>655840</v>
+        <v>377210</v>
       </c>
       <c r="H35">
-        <v>688620</v>
+        <v>385960</v>
       </c>
       <c r="I35">
-        <v>656510</v>
+        <v>302410</v>
       </c>
       <c r="J35">
-        <v>650580</v>
+        <v>285980</v>
       </c>
       <c r="K35">
-        <v>690050</v>
+        <v>298050</v>
       </c>
       <c r="L35">
-        <v>712580</v>
+        <v>294840</v>
       </c>
       <c r="M35">
-        <v>811800</v>
+        <v>598600</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>705200</v>
+        <v>351380</v>
       </c>
       <c r="C36">
-        <v>695610</v>
+        <v>372570</v>
       </c>
       <c r="D36">
-        <v>697250</v>
+        <v>391680</v>
       </c>
       <c r="E36">
-        <v>702400</v>
+        <v>411870</v>
       </c>
       <c r="F36">
-        <v>702700</v>
+        <v>428260</v>
       </c>
       <c r="G36">
-        <v>701690</v>
+        <v>438070</v>
       </c>
       <c r="H36">
-        <v>697510</v>
+        <v>442870</v>
       </c>
       <c r="I36">
-        <v>676440</v>
+        <v>417440</v>
       </c>
       <c r="J36">
-        <v>641240</v>
+        <v>417620</v>
       </c>
       <c r="K36">
-        <v>632020</v>
+        <v>427920</v>
       </c>
       <c r="L36">
-        <v>630250</v>
+        <v>436160</v>
       </c>
       <c r="M36">
-        <v>689900</v>
+        <v>493600</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>351960</v>
+        <v>362690</v>
       </c>
       <c r="C37">
-        <v>343140</v>
+        <v>368760</v>
       </c>
       <c r="D37">
-        <v>348010</v>
+        <v>379430</v>
       </c>
       <c r="E37">
-        <v>352380</v>
+        <v>398390</v>
       </c>
       <c r="F37">
-        <v>351910</v>
+        <v>417720</v>
       </c>
       <c r="G37">
-        <v>377210</v>
+        <v>417860</v>
       </c>
       <c r="H37">
-        <v>385960</v>
+        <v>417780</v>
       </c>
       <c r="I37">
-        <v>302410</v>
+        <v>415310</v>
       </c>
       <c r="J37">
-        <v>285980</v>
+        <v>436630</v>
       </c>
       <c r="K37">
-        <v>298050</v>
+        <v>453630</v>
       </c>
       <c r="L37">
-        <v>294840</v>
+        <v>460280</v>
       </c>
       <c r="M37">
-        <v>598600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>351380</v>
-      </c>
-      <c r="C38">
-        <v>372570</v>
-      </c>
-      <c r="D38">
-        <v>391680</v>
-      </c>
-      <c r="E38">
-        <v>411870</v>
-      </c>
-      <c r="F38">
-        <v>428260</v>
-      </c>
-      <c r="G38">
-        <v>438070</v>
-      </c>
-      <c r="H38">
-        <v>442870</v>
-      </c>
-      <c r="I38">
-        <v>417440</v>
-      </c>
-      <c r="J38">
-        <v>417620</v>
-      </c>
-      <c r="K38">
-        <v>427920</v>
-      </c>
-      <c r="L38">
-        <v>436160</v>
-      </c>
-      <c r="M38">
-        <v>493600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39">
-        <v>362690</v>
-      </c>
-      <c r="C39">
-        <v>368760</v>
-      </c>
-      <c r="D39">
-        <v>379430</v>
-      </c>
-      <c r="E39">
-        <v>398390</v>
-      </c>
-      <c r="F39">
-        <v>417720</v>
-      </c>
-      <c r="G39">
-        <v>417860</v>
-      </c>
-      <c r="H39">
-        <v>417780</v>
-      </c>
-      <c r="I39">
-        <v>415310</v>
-      </c>
-      <c r="J39">
-        <v>436630</v>
-      </c>
-      <c r="K39">
-        <v>453630</v>
-      </c>
-      <c r="L39">
-        <v>460280</v>
-      </c>
-      <c r="M39">
         <v>485500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/to graph.xlsx
+++ b/to graph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="71">
   <si>
     <t>OCC_TITLE</t>
   </si>
@@ -151,6 +151,87 @@
   </si>
   <si>
     <t>Total Employment Top 10 by 2032 (excluding first-line supervisors)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Air Traffic Controller)</t>
+  </si>
+  <si>
+    <t>Percentile\Year</t>
+  </si>
+  <si>
+    <t>PCT10</t>
+  </si>
+  <si>
+    <t>PCT25</t>
+  </si>
+  <si>
+    <t>PCT50</t>
+  </si>
+  <si>
+    <t>PCT75</t>
+  </si>
+  <si>
+    <t>PCT90</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Nuclear Power Reactor Operators)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Commercial Pilots)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Power Distributors and Dispatchers)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Elevator and Escalator Installers and Repairers)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Nuclear Technicians)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Radiation Therapists)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Power Plant Operators)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Electrical and Electronics Repairers, Powerhouse, Substation, and Relay)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Maintenance and Repair Workers, General)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Cooks, restaurant)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Nursing assistants)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Carpenters)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Medical Assistants)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Electricians)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Licensed practical and licensed vocational nurses)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Hairdressers, hairstylists, and cosmetologists)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Plumbers, pipefitters, and steamfitters)</t>
+  </si>
+  <si>
+    <t>Annual Wage by Percentile (Pharmacy technicians)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>more than 239200</t>
   </si>
 </sst>
 </file>
@@ -177,12 +258,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -212,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -220,6 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,6 +1860,4436 @@
         <v>485500</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>66750</v>
+      </c>
+      <c r="C41">
+        <v>67070</v>
+      </c>
+      <c r="D41">
+        <v>66780</v>
+      </c>
+      <c r="E41">
+        <v>66390</v>
+      </c>
+      <c r="F41">
+        <v>67440</v>
+      </c>
+      <c r="G41">
+        <v>68090</v>
+      </c>
+      <c r="H41">
+        <v>68330</v>
+      </c>
+      <c r="I41">
+        <v>72760</v>
+      </c>
+      <c r="J41">
+        <v>71880</v>
+      </c>
+      <c r="K41">
+        <v>73590</v>
+      </c>
+      <c r="L41">
+        <v>76190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>85630</v>
+      </c>
+      <c r="C42">
+        <v>86830</v>
+      </c>
+      <c r="D42">
+        <v>86330</v>
+      </c>
+      <c r="E42">
+        <v>84730</v>
+      </c>
+      <c r="F42">
+        <v>86610</v>
+      </c>
+      <c r="G42">
+        <v>86900</v>
+      </c>
+      <c r="H42">
+        <v>85770</v>
+      </c>
+      <c r="I42">
+        <v>90950</v>
+      </c>
+      <c r="J42">
+        <v>90330</v>
+      </c>
+      <c r="K42">
+        <v>92580</v>
+      </c>
+      <c r="L42">
+        <v>96870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>121280</v>
+      </c>
+      <c r="C43">
+        <v>122340</v>
+      </c>
+      <c r="D43">
+        <v>122950</v>
+      </c>
+      <c r="E43">
+        <v>122410</v>
+      </c>
+      <c r="F43">
+        <v>124540</v>
+      </c>
+      <c r="G43">
+        <v>124540</v>
+      </c>
+      <c r="H43">
+        <v>122990</v>
+      </c>
+      <c r="I43">
+        <v>130420</v>
+      </c>
+      <c r="J43">
+        <v>129750</v>
+      </c>
+      <c r="K43">
+        <v>132250</v>
+      </c>
+      <c r="L43">
+        <v>137380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>150820</v>
+      </c>
+      <c r="C44">
+        <v>150690</v>
+      </c>
+      <c r="D44">
+        <v>150120</v>
+      </c>
+      <c r="E44">
+        <v>149230</v>
+      </c>
+      <c r="F44">
+        <v>151620</v>
+      </c>
+      <c r="G44">
+        <v>152830</v>
+      </c>
+      <c r="H44">
+        <v>151350</v>
+      </c>
+      <c r="I44">
+        <v>161820</v>
+      </c>
+      <c r="J44">
+        <v>163700</v>
+      </c>
+      <c r="K44">
+        <v>168770</v>
+      </c>
+      <c r="L44">
+        <v>176720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>170760</v>
+      </c>
+      <c r="C45">
+        <v>172000</v>
+      </c>
+      <c r="D45">
+        <v>172590</v>
+      </c>
+      <c r="E45">
+        <v>172680</v>
+      </c>
+      <c r="F45">
+        <v>175800</v>
+      </c>
+      <c r="G45">
+        <v>178650</v>
+      </c>
+      <c r="H45">
+        <v>176320</v>
+      </c>
+      <c r="I45">
+        <v>184780</v>
+      </c>
+      <c r="J45">
+        <v>185990</v>
+      </c>
+      <c r="K45">
+        <v>189800</v>
+      </c>
+      <c r="L45">
+        <v>200990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>56910</v>
+      </c>
+      <c r="C49">
+        <v>62890</v>
+      </c>
+      <c r="D49">
+        <v>66520</v>
+      </c>
+      <c r="E49">
+        <v>66350</v>
+      </c>
+      <c r="F49">
+        <v>67590</v>
+      </c>
+      <c r="G49">
+        <v>68200</v>
+      </c>
+      <c r="H49">
+        <v>74520</v>
+      </c>
+      <c r="I49">
+        <v>76360</v>
+      </c>
+      <c r="J49">
+        <v>79720</v>
+      </c>
+      <c r="K49">
+        <v>85580</v>
+      </c>
+      <c r="L49">
+        <v>92270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>66270</v>
+      </c>
+      <c r="C50">
+        <v>71340</v>
+      </c>
+      <c r="D50">
+        <v>77570</v>
+      </c>
+      <c r="E50">
+        <v>78640</v>
+      </c>
+      <c r="F50">
+        <v>80420</v>
+      </c>
+      <c r="G50">
+        <v>80290</v>
+      </c>
+      <c r="H50">
+        <v>87250</v>
+      </c>
+      <c r="I50">
+        <v>90600</v>
+      </c>
+      <c r="J50">
+        <v>98390</v>
+      </c>
+      <c r="K50">
+        <v>100190</v>
+      </c>
+      <c r="L50">
+        <v>103880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>78350</v>
+      </c>
+      <c r="C51">
+        <v>82500</v>
+      </c>
+      <c r="D51">
+        <v>88560</v>
+      </c>
+      <c r="E51">
+        <v>91170</v>
+      </c>
+      <c r="F51">
+        <v>93370</v>
+      </c>
+      <c r="G51">
+        <v>94350</v>
+      </c>
+      <c r="H51">
+        <v>100530</v>
+      </c>
+      <c r="I51">
+        <v>104040</v>
+      </c>
+      <c r="J51">
+        <v>104260</v>
+      </c>
+      <c r="K51">
+        <v>115870</v>
+      </c>
+      <c r="L51">
+        <v>120350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>90250</v>
+      </c>
+      <c r="C52">
+        <v>93710</v>
+      </c>
+      <c r="D52">
+        <v>100250</v>
+      </c>
+      <c r="E52">
+        <v>104490</v>
+      </c>
+      <c r="F52">
+        <v>109540</v>
+      </c>
+      <c r="G52">
+        <v>111070</v>
+      </c>
+      <c r="H52">
+        <v>116880</v>
+      </c>
+      <c r="I52">
+        <v>121120</v>
+      </c>
+      <c r="J52">
+        <v>126950</v>
+      </c>
+      <c r="K52">
+        <v>131030</v>
+      </c>
+      <c r="L52">
+        <v>134100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>101050</v>
+      </c>
+      <c r="C53">
+        <v>103090</v>
+      </c>
+      <c r="D53">
+        <v>116780</v>
+      </c>
+      <c r="E53">
+        <v>121570</v>
+      </c>
+      <c r="F53">
+        <v>126380</v>
+      </c>
+      <c r="G53">
+        <v>127370</v>
+      </c>
+      <c r="H53">
+        <v>128810</v>
+      </c>
+      <c r="I53">
+        <v>133170</v>
+      </c>
+      <c r="J53">
+        <v>132960</v>
+      </c>
+      <c r="K53">
+        <v>146100</v>
+      </c>
+      <c r="L53">
+        <v>151980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57">
+        <v>36850</v>
+      </c>
+      <c r="C57">
+        <v>35250</v>
+      </c>
+      <c r="D57">
+        <v>34800</v>
+      </c>
+      <c r="E57">
+        <v>39430</v>
+      </c>
+      <c r="F57">
+        <v>43570</v>
+      </c>
+      <c r="G57">
+        <v>44660</v>
+      </c>
+      <c r="H57">
+        <v>45480</v>
+      </c>
+      <c r="I57">
+        <v>47570</v>
+      </c>
+      <c r="J57">
+        <v>50080</v>
+      </c>
+      <c r="K57">
+        <v>54100</v>
+      </c>
+      <c r="L57">
+        <v>56260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58">
+        <v>52520</v>
+      </c>
+      <c r="C58">
+        <v>52450</v>
+      </c>
+      <c r="D58">
+        <v>53330</v>
+      </c>
+      <c r="E58">
+        <v>55900</v>
+      </c>
+      <c r="F58">
+        <v>58910</v>
+      </c>
+      <c r="G58">
+        <v>61950</v>
+      </c>
+      <c r="H58">
+        <v>63040</v>
+      </c>
+      <c r="I58">
+        <v>67070</v>
+      </c>
+      <c r="J58">
+        <v>75370</v>
+      </c>
+      <c r="K58">
+        <v>76320</v>
+      </c>
+      <c r="L58">
+        <v>79440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59">
+        <v>74470</v>
+      </c>
+      <c r="C59">
+        <v>75620</v>
+      </c>
+      <c r="D59">
+        <v>76150</v>
+      </c>
+      <c r="E59">
+        <v>77200</v>
+      </c>
+      <c r="F59">
+        <v>78740</v>
+      </c>
+      <c r="G59">
+        <v>82240</v>
+      </c>
+      <c r="H59">
+        <v>86080</v>
+      </c>
+      <c r="I59">
+        <v>93300</v>
+      </c>
+      <c r="J59">
+        <v>99640</v>
+      </c>
+      <c r="K59">
+        <v>103910</v>
+      </c>
+      <c r="L59">
+        <v>113080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60">
+        <v>100480</v>
+      </c>
+      <c r="C60">
+        <v>104160</v>
+      </c>
+      <c r="D60">
+        <v>105810</v>
+      </c>
+      <c r="E60">
+        <v>105620</v>
+      </c>
+      <c r="F60">
+        <v>106990</v>
+      </c>
+      <c r="G60">
+        <v>115280</v>
+      </c>
+      <c r="H60">
+        <v>123070</v>
+      </c>
+      <c r="I60">
+        <v>132850</v>
+      </c>
+      <c r="J60">
+        <v>134110</v>
+      </c>
+      <c r="K60">
+        <v>149170</v>
+      </c>
+      <c r="L60">
+        <v>168700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>136890</v>
+      </c>
+      <c r="C61">
+        <v>141210</v>
+      </c>
+      <c r="D61">
+        <v>147890</v>
+      </c>
+      <c r="E61">
+        <v>147240</v>
+      </c>
+      <c r="F61">
+        <v>152180</v>
+      </c>
+      <c r="G61">
+        <v>160480</v>
+      </c>
+      <c r="H61">
+        <v>179440</v>
+      </c>
+      <c r="I61">
+        <v>200920</v>
+      </c>
+      <c r="J61">
+        <v>205940</v>
+      </c>
+      <c r="K61">
+        <v>217530</v>
+      </c>
+      <c r="L61" s="3">
+        <v>239200</v>
+      </c>
+      <c r="N61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>49800</v>
+      </c>
+      <c r="C66">
+        <v>51450</v>
+      </c>
+      <c r="D66">
+        <v>53370</v>
+      </c>
+      <c r="E66">
+        <v>52900</v>
+      </c>
+      <c r="F66">
+        <v>54090</v>
+      </c>
+      <c r="G66">
+        <v>54670</v>
+      </c>
+      <c r="H66">
+        <v>56360</v>
+      </c>
+      <c r="I66">
+        <v>58450</v>
+      </c>
+      <c r="J66">
+        <v>61670</v>
+      </c>
+      <c r="K66">
+        <v>66090</v>
+      </c>
+      <c r="L66">
+        <v>68360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>62050</v>
+      </c>
+      <c r="C67">
+        <v>64320</v>
+      </c>
+      <c r="D67">
+        <v>67250</v>
+      </c>
+      <c r="E67">
+        <v>67580</v>
+      </c>
+      <c r="F67">
+        <v>68070</v>
+      </c>
+      <c r="G67">
+        <v>69440</v>
+      </c>
+      <c r="H67">
+        <v>72540</v>
+      </c>
+      <c r="I67">
+        <v>75850</v>
+      </c>
+      <c r="J67">
+        <v>79270</v>
+      </c>
+      <c r="K67">
+        <v>83070</v>
+      </c>
+      <c r="L67">
+        <v>87440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68">
+        <v>75080</v>
+      </c>
+      <c r="C68">
+        <v>78240</v>
+      </c>
+      <c r="D68">
+        <v>80840</v>
+      </c>
+      <c r="E68">
+        <v>81900</v>
+      </c>
+      <c r="F68">
+        <v>82510</v>
+      </c>
+      <c r="G68">
+        <v>86410</v>
+      </c>
+      <c r="H68">
+        <v>90700</v>
+      </c>
+      <c r="I68">
+        <v>95100</v>
+      </c>
+      <c r="J68">
+        <v>98530</v>
+      </c>
+      <c r="K68">
+        <v>101650</v>
+      </c>
+      <c r="L68">
+        <v>104750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69">
+        <v>89610</v>
+      </c>
+      <c r="C69">
+        <v>92690</v>
+      </c>
+      <c r="D69">
+        <v>94830</v>
+      </c>
+      <c r="E69">
+        <v>96870</v>
+      </c>
+      <c r="F69">
+        <v>97840</v>
+      </c>
+      <c r="G69">
+        <v>100810</v>
+      </c>
+      <c r="H69">
+        <v>104140</v>
+      </c>
+      <c r="I69">
+        <v>109260</v>
+      </c>
+      <c r="J69">
+        <v>109180</v>
+      </c>
+      <c r="K69">
+        <v>118350</v>
+      </c>
+      <c r="L69">
+        <v>122830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>106410</v>
+      </c>
+      <c r="C70">
+        <v>107880</v>
+      </c>
+      <c r="D70">
+        <v>108900</v>
+      </c>
+      <c r="E70">
+        <v>110340</v>
+      </c>
+      <c r="F70">
+        <v>111250</v>
+      </c>
+      <c r="G70">
+        <v>117860</v>
+      </c>
+      <c r="H70">
+        <v>122380</v>
+      </c>
+      <c r="I70">
+        <v>129010</v>
+      </c>
+      <c r="J70">
+        <v>129900</v>
+      </c>
+      <c r="K70">
+        <v>135620</v>
+      </c>
+      <c r="L70">
+        <v>138950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75">
+        <v>43250</v>
+      </c>
+      <c r="C75">
+        <v>41930</v>
+      </c>
+      <c r="D75">
+        <v>40140</v>
+      </c>
+      <c r="E75">
+        <v>37890</v>
+      </c>
+      <c r="F75">
+        <v>38630</v>
+      </c>
+      <c r="G75">
+        <v>40850</v>
+      </c>
+      <c r="H75">
+        <v>44620</v>
+      </c>
+      <c r="I75">
+        <v>45950</v>
+      </c>
+      <c r="J75">
+        <v>47370</v>
+      </c>
+      <c r="K75">
+        <v>47850</v>
+      </c>
+      <c r="L75">
+        <v>51960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>62060</v>
+      </c>
+      <c r="C76">
+        <v>62030</v>
+      </c>
+      <c r="D76">
+        <v>59750</v>
+      </c>
+      <c r="E76">
+        <v>56060</v>
+      </c>
+      <c r="F76">
+        <v>55400</v>
+      </c>
+      <c r="G76">
+        <v>57290</v>
+      </c>
+      <c r="H76">
+        <v>60480</v>
+      </c>
+      <c r="I76">
+        <v>62050</v>
+      </c>
+      <c r="J76">
+        <v>62190</v>
+      </c>
+      <c r="K76">
+        <v>64810</v>
+      </c>
+      <c r="L76">
+        <v>75570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77">
+        <v>78640</v>
+      </c>
+      <c r="C77">
+        <v>78620</v>
+      </c>
+      <c r="D77">
+        <v>80870</v>
+      </c>
+      <c r="E77">
+        <v>78890</v>
+      </c>
+      <c r="F77">
+        <v>79480</v>
+      </c>
+      <c r="G77">
+        <v>79780</v>
+      </c>
+      <c r="H77">
+        <v>84990</v>
+      </c>
+      <c r="I77">
+        <v>88540</v>
+      </c>
+      <c r="J77">
+        <v>97860</v>
+      </c>
+      <c r="K77">
+        <v>99000</v>
+      </c>
+      <c r="L77">
+        <v>102420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78">
+        <v>91240</v>
+      </c>
+      <c r="C78">
+        <v>92670</v>
+      </c>
+      <c r="D78">
+        <v>94980</v>
+      </c>
+      <c r="E78">
+        <v>97670</v>
+      </c>
+      <c r="F78">
+        <v>98700</v>
+      </c>
+      <c r="G78">
+        <v>100680</v>
+      </c>
+      <c r="H78">
+        <v>104730</v>
+      </c>
+      <c r="I78">
+        <v>108080</v>
+      </c>
+      <c r="J78">
+        <v>117350</v>
+      </c>
+      <c r="K78">
+        <v>119350</v>
+      </c>
+      <c r="L78">
+        <v>127310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>108130</v>
+      </c>
+      <c r="C79">
+        <v>109450</v>
+      </c>
+      <c r="D79">
+        <v>111370</v>
+      </c>
+      <c r="E79">
+        <v>114980</v>
+      </c>
+      <c r="F79">
+        <v>115880</v>
+      </c>
+      <c r="G79">
+        <v>121200</v>
+      </c>
+      <c r="H79">
+        <v>124150</v>
+      </c>
+      <c r="I79">
+        <v>128500</v>
+      </c>
+      <c r="J79">
+        <v>130940</v>
+      </c>
+      <c r="K79">
+        <v>135130</v>
+      </c>
+      <c r="L79">
+        <v>138910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>46290</v>
+      </c>
+      <c r="C84">
+        <v>46430</v>
+      </c>
+      <c r="D84">
+        <v>47730</v>
+      </c>
+      <c r="E84">
+        <v>45850</v>
+      </c>
+      <c r="F84">
+        <v>48110</v>
+      </c>
+      <c r="G84">
+        <v>49820</v>
+      </c>
+      <c r="H84">
+        <v>52860</v>
+      </c>
+      <c r="I84">
+        <v>53570</v>
+      </c>
+      <c r="J84">
+        <v>60490</v>
+      </c>
+      <c r="K84">
+        <v>63500</v>
+      </c>
+      <c r="L84">
+        <v>62700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85">
+        <v>58960</v>
+      </c>
+      <c r="C85">
+        <v>60880</v>
+      </c>
+      <c r="D85">
+        <v>63830</v>
+      </c>
+      <c r="E85">
+        <v>61780</v>
+      </c>
+      <c r="F85">
+        <v>62410</v>
+      </c>
+      <c r="G85">
+        <v>61090</v>
+      </c>
+      <c r="H85">
+        <v>64140</v>
+      </c>
+      <c r="I85">
+        <v>65650</v>
+      </c>
+      <c r="J85">
+        <v>78810</v>
+      </c>
+      <c r="K85">
+        <v>78410</v>
+      </c>
+      <c r="L85">
+        <v>76280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86">
+        <v>72610</v>
+      </c>
+      <c r="C86">
+        <v>74690</v>
+      </c>
+      <c r="D86">
+        <v>80260</v>
+      </c>
+      <c r="E86">
+        <v>79140</v>
+      </c>
+      <c r="F86">
+        <v>80370</v>
+      </c>
+      <c r="G86">
+        <v>79140</v>
+      </c>
+      <c r="H86">
+        <v>82080</v>
+      </c>
+      <c r="I86">
+        <v>84190</v>
+      </c>
+      <c r="J86">
+        <v>99340</v>
+      </c>
+      <c r="K86">
+        <v>100420</v>
+      </c>
+      <c r="L86">
+        <v>101740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87">
+        <v>86150</v>
+      </c>
+      <c r="C87">
+        <v>89220</v>
+      </c>
+      <c r="D87">
+        <v>93160</v>
+      </c>
+      <c r="E87">
+        <v>95000</v>
+      </c>
+      <c r="F87">
+        <v>97120</v>
+      </c>
+      <c r="G87">
+        <v>97120</v>
+      </c>
+      <c r="H87">
+        <v>98430</v>
+      </c>
+      <c r="I87">
+        <v>100260</v>
+      </c>
+      <c r="J87">
+        <v>106260</v>
+      </c>
+      <c r="K87">
+        <v>107470</v>
+      </c>
+      <c r="L87">
+        <v>111420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88">
+        <v>96160</v>
+      </c>
+      <c r="C88">
+        <v>102400</v>
+      </c>
+      <c r="D88">
+        <v>103750</v>
+      </c>
+      <c r="E88">
+        <v>106950</v>
+      </c>
+      <c r="F88">
+        <v>112390</v>
+      </c>
+      <c r="G88">
+        <v>114670</v>
+      </c>
+      <c r="H88">
+        <v>117480</v>
+      </c>
+      <c r="I88">
+        <v>116680</v>
+      </c>
+      <c r="J88">
+        <v>126600</v>
+      </c>
+      <c r="K88">
+        <v>126050</v>
+      </c>
+      <c r="L88">
+        <v>128700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94">
+        <v>53010</v>
+      </c>
+      <c r="C94">
+        <v>53590</v>
+      </c>
+      <c r="D94">
+        <v>54220</v>
+      </c>
+      <c r="E94">
+        <v>53680</v>
+      </c>
+      <c r="F94">
+        <v>55530</v>
+      </c>
+      <c r="G94">
+        <v>56360</v>
+      </c>
+      <c r="H94">
+        <v>59280</v>
+      </c>
+      <c r="I94">
+        <v>60080</v>
+      </c>
+      <c r="J94">
+        <v>61030</v>
+      </c>
+      <c r="K94">
+        <v>65760</v>
+      </c>
+      <c r="L94">
+        <v>72280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <v>64300</v>
+      </c>
+      <c r="C95">
+        <v>64930</v>
+      </c>
+      <c r="D95">
+        <v>65250</v>
+      </c>
+      <c r="E95">
+        <v>64630</v>
+      </c>
+      <c r="F95">
+        <v>66400</v>
+      </c>
+      <c r="G95">
+        <v>67490</v>
+      </c>
+      <c r="H95">
+        <v>70170</v>
+      </c>
+      <c r="I95">
+        <v>71350</v>
+      </c>
+      <c r="J95">
+        <v>75490</v>
+      </c>
+      <c r="K95">
+        <v>77930</v>
+      </c>
+      <c r="L95">
+        <v>82300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96">
+        <v>79140</v>
+      </c>
+      <c r="C96">
+        <v>80090</v>
+      </c>
+      <c r="D96">
+        <v>80220</v>
+      </c>
+      <c r="E96">
+        <v>80160</v>
+      </c>
+      <c r="F96">
+        <v>80570</v>
+      </c>
+      <c r="G96">
+        <v>82330</v>
+      </c>
+      <c r="H96">
+        <v>85560</v>
+      </c>
+      <c r="I96">
+        <v>86850</v>
+      </c>
+      <c r="J96">
+        <v>82790</v>
+      </c>
+      <c r="K96">
+        <v>89530</v>
+      </c>
+      <c r="L96">
+        <v>98300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97">
+        <v>96050</v>
+      </c>
+      <c r="C97">
+        <v>97190</v>
+      </c>
+      <c r="D97">
+        <v>99020</v>
+      </c>
+      <c r="E97">
+        <v>100800</v>
+      </c>
+      <c r="F97">
+        <v>101030</v>
+      </c>
+      <c r="G97">
+        <v>102380</v>
+      </c>
+      <c r="H97">
+        <v>105830</v>
+      </c>
+      <c r="I97">
+        <v>107830</v>
+      </c>
+      <c r="J97">
+        <v>102060</v>
+      </c>
+      <c r="K97">
+        <v>105760</v>
+      </c>
+      <c r="L97">
+        <v>112040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98">
+        <v>114900</v>
+      </c>
+      <c r="C98">
+        <v>118180</v>
+      </c>
+      <c r="D98">
+        <v>121110</v>
+      </c>
+      <c r="E98">
+        <v>123710</v>
+      </c>
+      <c r="F98">
+        <v>123020</v>
+      </c>
+      <c r="G98">
+        <v>124320</v>
+      </c>
+      <c r="H98">
+        <v>128630</v>
+      </c>
+      <c r="I98">
+        <v>132930</v>
+      </c>
+      <c r="J98">
+        <v>128550</v>
+      </c>
+      <c r="K98">
+        <v>133260</v>
+      </c>
+      <c r="L98">
+        <v>136910</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>42520</v>
+      </c>
+      <c r="C105">
+        <v>44130</v>
+      </c>
+      <c r="D105">
+        <v>43930</v>
+      </c>
+      <c r="E105">
+        <v>44270</v>
+      </c>
+      <c r="F105">
+        <v>45230</v>
+      </c>
+      <c r="G105">
+        <v>45590</v>
+      </c>
+      <c r="H105">
+        <v>45970</v>
+      </c>
+      <c r="I105">
+        <v>48090</v>
+      </c>
+      <c r="J105">
+        <v>48610</v>
+      </c>
+      <c r="K105">
+        <v>52000</v>
+      </c>
+      <c r="L105">
+        <v>54080</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>55270</v>
+      </c>
+      <c r="C106">
+        <v>57470</v>
+      </c>
+      <c r="D106">
+        <v>58050</v>
+      </c>
+      <c r="E106">
+        <v>59550</v>
+      </c>
+      <c r="F106">
+        <v>60870</v>
+      </c>
+      <c r="G106">
+        <v>62330</v>
+      </c>
+      <c r="H106">
+        <v>63110</v>
+      </c>
+      <c r="I106">
+        <v>65300</v>
+      </c>
+      <c r="J106">
+        <v>62890</v>
+      </c>
+      <c r="K106">
+        <v>71160</v>
+      </c>
+      <c r="L106">
+        <v>72860</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>68100</v>
+      </c>
+      <c r="C107">
+        <v>70070</v>
+      </c>
+      <c r="D107">
+        <v>71940</v>
+      </c>
+      <c r="E107">
+        <v>74690</v>
+      </c>
+      <c r="F107">
+        <v>77180</v>
+      </c>
+      <c r="G107">
+        <v>79610</v>
+      </c>
+      <c r="H107">
+        <v>81990</v>
+      </c>
+      <c r="I107">
+        <v>84650</v>
+      </c>
+      <c r="J107">
+        <v>80850</v>
+      </c>
+      <c r="K107">
+        <v>93060</v>
+      </c>
+      <c r="L107">
+        <v>97010</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108">
+        <v>79760</v>
+      </c>
+      <c r="C108">
+        <v>82000</v>
+      </c>
+      <c r="D108">
+        <v>85320</v>
+      </c>
+      <c r="E108">
+        <v>89390</v>
+      </c>
+      <c r="F108">
+        <v>92740</v>
+      </c>
+      <c r="G108">
+        <v>95330</v>
+      </c>
+      <c r="H108">
+        <v>96940</v>
+      </c>
+      <c r="I108">
+        <v>99890</v>
+      </c>
+      <c r="J108">
+        <v>100340</v>
+      </c>
+      <c r="K108">
+        <v>104720</v>
+      </c>
+      <c r="L108">
+        <v>106780</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>91850</v>
+      </c>
+      <c r="C109">
+        <v>94060</v>
+      </c>
+      <c r="D109">
+        <v>97410</v>
+      </c>
+      <c r="E109">
+        <v>101590</v>
+      </c>
+      <c r="F109">
+        <v>103880</v>
+      </c>
+      <c r="G109">
+        <v>106650</v>
+      </c>
+      <c r="H109">
+        <v>108380</v>
+      </c>
+      <c r="I109">
+        <v>111470</v>
+      </c>
+      <c r="J109">
+        <v>110590</v>
+      </c>
+      <c r="K109">
+        <v>119880</v>
+      </c>
+      <c r="L109">
+        <v>123120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>33090</v>
+      </c>
+      <c r="C114">
+        <v>34110</v>
+      </c>
+      <c r="D114">
+        <v>34570</v>
+      </c>
+      <c r="E114">
+        <v>34650</v>
+      </c>
+      <c r="F114">
+        <v>35180</v>
+      </c>
+      <c r="G114">
+        <v>35820</v>
+      </c>
+      <c r="H114">
+        <v>36960</v>
+      </c>
+      <c r="I114">
+        <v>39160</v>
+      </c>
+      <c r="J114">
+        <v>37800</v>
+      </c>
+      <c r="K114">
+        <v>39550</v>
+      </c>
+      <c r="L114">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115">
+        <v>42410</v>
+      </c>
+      <c r="C115">
+        <v>43690</v>
+      </c>
+      <c r="D115">
+        <v>44400</v>
+      </c>
+      <c r="E115">
+        <v>44530</v>
+      </c>
+      <c r="F115">
+        <v>45340</v>
+      </c>
+      <c r="G115">
+        <v>46190</v>
+      </c>
+      <c r="H115">
+        <v>47640</v>
+      </c>
+      <c r="I115">
+        <v>50030</v>
+      </c>
+      <c r="J115">
+        <v>48420</v>
+      </c>
+      <c r="K115">
+        <v>51230</v>
+      </c>
+      <c r="L115">
+        <v>53350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116">
+        <v>53400</v>
+      </c>
+      <c r="C116">
+        <v>54640</v>
+      </c>
+      <c r="D116">
+        <v>55690</v>
+      </c>
+      <c r="E116">
+        <v>56250</v>
+      </c>
+      <c r="F116">
+        <v>57190</v>
+      </c>
+      <c r="G116">
+        <v>58110</v>
+      </c>
+      <c r="H116">
+        <v>59300</v>
+      </c>
+      <c r="I116">
+        <v>62010</v>
+      </c>
+      <c r="J116">
+        <v>61730</v>
+      </c>
+      <c r="K116">
+        <v>64030</v>
+      </c>
+      <c r="L116">
+        <v>66680</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117">
+        <v>78820</v>
+      </c>
+      <c r="C117">
+        <v>80400</v>
+      </c>
+      <c r="D117">
+        <v>84420</v>
+      </c>
+      <c r="E117">
+        <v>87220</v>
+      </c>
+      <c r="F117">
+        <v>92270</v>
+      </c>
+      <c r="G117">
+        <v>94770</v>
+      </c>
+      <c r="H117">
+        <v>96160</v>
+      </c>
+      <c r="I117">
+        <v>99390</v>
+      </c>
+      <c r="J117">
+        <v>101680</v>
+      </c>
+      <c r="K117">
+        <v>104720</v>
+      </c>
+      <c r="L117">
+        <v>107830</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118">
+        <v>89910</v>
+      </c>
+      <c r="C118">
+        <v>92080</v>
+      </c>
+      <c r="D118">
+        <v>95890</v>
+      </c>
+      <c r="E118">
+        <v>98890</v>
+      </c>
+      <c r="F118">
+        <v>102550</v>
+      </c>
+      <c r="G118">
+        <v>105060</v>
+      </c>
+      <c r="H118">
+        <v>106610</v>
+      </c>
+      <c r="I118">
+        <v>110110</v>
+      </c>
+      <c r="J118">
+        <v>120000</v>
+      </c>
+      <c r="K118">
+        <v>117220</v>
+      </c>
+      <c r="L118">
+        <v>122840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123">
+        <v>21070</v>
+      </c>
+      <c r="C123">
+        <v>21370</v>
+      </c>
+      <c r="D123">
+        <v>21700</v>
+      </c>
+      <c r="E123">
+        <v>22010</v>
+      </c>
+      <c r="F123">
+        <v>22820</v>
+      </c>
+      <c r="G123">
+        <v>23540</v>
+      </c>
+      <c r="H123">
+        <v>24600</v>
+      </c>
+      <c r="I123">
+        <v>26130</v>
+      </c>
+      <c r="J123">
+        <v>28910</v>
+      </c>
+      <c r="K123">
+        <v>29220</v>
+      </c>
+      <c r="L123">
+        <v>30860</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124">
+        <v>27000</v>
+      </c>
+      <c r="C124">
+        <v>27450</v>
+      </c>
+      <c r="D124">
+        <v>27890</v>
+      </c>
+      <c r="E124">
+        <v>28180</v>
+      </c>
+      <c r="F124">
+        <v>28930</v>
+      </c>
+      <c r="G124">
+        <v>29560</v>
+      </c>
+      <c r="H124">
+        <v>30590</v>
+      </c>
+      <c r="I124">
+        <v>32020</v>
+      </c>
+      <c r="J124">
+        <v>34270</v>
+      </c>
+      <c r="K124">
+        <v>35800</v>
+      </c>
+      <c r="L124">
+        <v>37160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125">
+        <v>35640</v>
+      </c>
+      <c r="C125">
+        <v>36170</v>
+      </c>
+      <c r="D125">
+        <v>36630</v>
+      </c>
+      <c r="E125">
+        <v>36940</v>
+      </c>
+      <c r="F125">
+        <v>37670</v>
+      </c>
+      <c r="G125">
+        <v>38300</v>
+      </c>
+      <c r="H125">
+        <v>39080</v>
+      </c>
+      <c r="I125">
+        <v>40850</v>
+      </c>
+      <c r="J125">
+        <v>43180</v>
+      </c>
+      <c r="K125">
+        <v>44980</v>
+      </c>
+      <c r="L125">
+        <v>46700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126">
+        <v>46340</v>
+      </c>
+      <c r="C126">
+        <v>47250</v>
+      </c>
+      <c r="D126">
+        <v>47950</v>
+      </c>
+      <c r="E126">
+        <v>48520</v>
+      </c>
+      <c r="F126">
+        <v>49410</v>
+      </c>
+      <c r="G126">
+        <v>50100</v>
+      </c>
+      <c r="H126">
+        <v>51030</v>
+      </c>
+      <c r="I126">
+        <v>53150</v>
+      </c>
+      <c r="J126">
+        <v>53900</v>
+      </c>
+      <c r="K126">
+        <v>57390</v>
+      </c>
+      <c r="L126">
+        <v>59640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127">
+        <v>57990</v>
+      </c>
+      <c r="C127">
+        <v>59170</v>
+      </c>
+      <c r="D127">
+        <v>60060</v>
+      </c>
+      <c r="E127">
+        <v>60660</v>
+      </c>
+      <c r="F127">
+        <v>61720</v>
+      </c>
+      <c r="G127">
+        <v>62400</v>
+      </c>
+      <c r="H127">
+        <v>63140</v>
+      </c>
+      <c r="I127">
+        <v>65590</v>
+      </c>
+      <c r="J127">
+        <v>62400</v>
+      </c>
+      <c r="K127">
+        <v>68930</v>
+      </c>
+      <c r="L127">
+        <v>73490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131">
+        <v>17060</v>
+      </c>
+      <c r="C131">
+        <v>17240</v>
+      </c>
+      <c r="D131">
+        <v>17680</v>
+      </c>
+      <c r="E131">
+        <v>18170</v>
+      </c>
+      <c r="F131">
+        <v>18810</v>
+      </c>
+      <c r="G131">
+        <v>19420</v>
+      </c>
+      <c r="H131">
+        <v>19970</v>
+      </c>
+      <c r="I131">
+        <v>20100</v>
+      </c>
+      <c r="J131">
+        <v>22550</v>
+      </c>
+      <c r="K131">
+        <v>23610</v>
+      </c>
+      <c r="L131">
+        <v>26980</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132">
+        <v>18860</v>
+      </c>
+      <c r="C132">
+        <v>19130</v>
+      </c>
+      <c r="D132">
+        <v>19610</v>
+      </c>
+      <c r="E132">
+        <v>20530</v>
+      </c>
+      <c r="F132">
+        <v>21380</v>
+      </c>
+      <c r="G132">
+        <v>22460</v>
+      </c>
+      <c r="H132">
+        <v>23520</v>
+      </c>
+      <c r="I132">
+        <v>24210</v>
+      </c>
+      <c r="J132">
+        <v>27810</v>
+      </c>
+      <c r="K132">
+        <v>28690</v>
+      </c>
+      <c r="L132">
+        <v>29860</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133">
+        <v>22160</v>
+      </c>
+      <c r="C133">
+        <v>22490</v>
+      </c>
+      <c r="D133">
+        <v>23100</v>
+      </c>
+      <c r="E133">
+        <v>24140</v>
+      </c>
+      <c r="F133">
+        <v>25180</v>
+      </c>
+      <c r="G133">
+        <v>26530</v>
+      </c>
+      <c r="H133">
+        <v>27790</v>
+      </c>
+      <c r="I133">
+        <v>28800</v>
+      </c>
+      <c r="J133">
+        <v>30010</v>
+      </c>
+      <c r="K133">
+        <v>34110</v>
+      </c>
+      <c r="L133">
+        <v>35780</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134">
+        <v>26930</v>
+      </c>
+      <c r="C134">
+        <v>27250</v>
+      </c>
+      <c r="D134">
+        <v>28080</v>
+      </c>
+      <c r="E134">
+        <v>29220</v>
+      </c>
+      <c r="F134">
+        <v>30150</v>
+      </c>
+      <c r="G134">
+        <v>31240</v>
+      </c>
+      <c r="H134">
+        <v>32600</v>
+      </c>
+      <c r="I134">
+        <v>33550</v>
+      </c>
+      <c r="J134">
+        <v>36480</v>
+      </c>
+      <c r="K134">
+        <v>37350</v>
+      </c>
+      <c r="L134">
+        <v>39630</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135">
+        <v>31670</v>
+      </c>
+      <c r="C135">
+        <v>31940</v>
+      </c>
+      <c r="D135">
+        <v>33450</v>
+      </c>
+      <c r="E135">
+        <v>35090</v>
+      </c>
+      <c r="F135">
+        <v>36440</v>
+      </c>
+      <c r="G135">
+        <v>37630</v>
+      </c>
+      <c r="H135">
+        <v>38740</v>
+      </c>
+      <c r="I135">
+        <v>39840</v>
+      </c>
+      <c r="J135">
+        <v>39090</v>
+      </c>
+      <c r="K135">
+        <v>44570</v>
+      </c>
+      <c r="L135">
+        <v>46420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" t="s">
+        <v>69</v>
+      </c>
+      <c r="G139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139">
+        <v>21960</v>
+      </c>
+      <c r="I139">
+        <v>22750</v>
+      </c>
+      <c r="J139">
+        <v>23880</v>
+      </c>
+      <c r="K139">
+        <v>28030</v>
+      </c>
+      <c r="L139">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" t="s">
+        <v>69</v>
+      </c>
+      <c r="F140" t="s">
+        <v>69</v>
+      </c>
+      <c r="G140" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140">
+        <v>25460</v>
+      </c>
+      <c r="I140">
+        <v>26650</v>
+      </c>
+      <c r="J140">
+        <v>28900</v>
+      </c>
+      <c r="K140">
+        <v>30770</v>
+      </c>
+      <c r="L140">
+        <v>34990</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" t="s">
+        <v>69</v>
+      </c>
+      <c r="G141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141">
+        <v>29660</v>
+      </c>
+      <c r="I141">
+        <v>30850</v>
+      </c>
+      <c r="J141">
+        <v>30310</v>
+      </c>
+      <c r="K141">
+        <v>35760</v>
+      </c>
+      <c r="L141">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" t="s">
+        <v>69</v>
+      </c>
+      <c r="G142" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142">
+        <v>35260</v>
+      </c>
+      <c r="I142">
+        <v>36990</v>
+      </c>
+      <c r="J142">
+        <v>37170</v>
+      </c>
+      <c r="K142">
+        <v>39260</v>
+      </c>
+      <c r="L142">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" t="s">
+        <v>69</v>
+      </c>
+      <c r="F143" t="s">
+        <v>69</v>
+      </c>
+      <c r="G143" t="s">
+        <v>69</v>
+      </c>
+      <c r="H143">
+        <v>40620</v>
+      </c>
+      <c r="I143">
+        <v>42110</v>
+      </c>
+      <c r="J143">
+        <v>44240</v>
+      </c>
+      <c r="K143">
+        <v>45940</v>
+      </c>
+      <c r="L143">
+        <v>48780</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148">
+        <v>25120</v>
+      </c>
+      <c r="C148">
+        <v>25640</v>
+      </c>
+      <c r="D148">
+        <v>26220</v>
+      </c>
+      <c r="E148">
+        <v>27070</v>
+      </c>
+      <c r="F148">
+        <v>27790</v>
+      </c>
+      <c r="G148">
+        <v>28860</v>
+      </c>
+      <c r="H148">
+        <v>30170</v>
+      </c>
+      <c r="I148">
+        <v>31200</v>
+      </c>
+      <c r="J148">
+        <v>31880</v>
+      </c>
+      <c r="K148">
+        <v>36160</v>
+      </c>
+      <c r="L148">
+        <v>37440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149">
+        <v>31550</v>
+      </c>
+      <c r="C149">
+        <v>32030</v>
+      </c>
+      <c r="D149">
+        <v>32810</v>
+      </c>
+      <c r="E149">
+        <v>33770</v>
+      </c>
+      <c r="F149">
+        <v>34740</v>
+      </c>
+      <c r="G149">
+        <v>35820</v>
+      </c>
+      <c r="H149">
+        <v>37140</v>
+      </c>
+      <c r="I149">
+        <v>38240</v>
+      </c>
+      <c r="J149">
+        <v>38240</v>
+      </c>
+      <c r="K149">
+        <v>43870</v>
+      </c>
+      <c r="L149">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150">
+        <v>40500</v>
+      </c>
+      <c r="C150">
+        <v>40820</v>
+      </c>
+      <c r="D150">
+        <v>42090</v>
+      </c>
+      <c r="E150">
+        <v>43600</v>
+      </c>
+      <c r="F150">
+        <v>45170</v>
+      </c>
+      <c r="G150">
+        <v>46590</v>
+      </c>
+      <c r="H150">
+        <v>48330</v>
+      </c>
+      <c r="I150">
+        <v>49520</v>
+      </c>
+      <c r="J150">
+        <v>48260</v>
+      </c>
+      <c r="K150">
+        <v>51390</v>
+      </c>
+      <c r="L150">
+        <v>56350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151">
+        <v>55340</v>
+      </c>
+      <c r="C151">
+        <v>55710</v>
+      </c>
+      <c r="D151">
+        <v>56970</v>
+      </c>
+      <c r="E151">
+        <v>58700</v>
+      </c>
+      <c r="F151">
+        <v>60180</v>
+      </c>
+      <c r="G151">
+        <v>61530</v>
+      </c>
+      <c r="H151">
+        <v>63050</v>
+      </c>
+      <c r="I151">
+        <v>64480</v>
+      </c>
+      <c r="J151">
+        <v>61980</v>
+      </c>
+      <c r="K151">
+        <v>66240</v>
+      </c>
+      <c r="L151">
+        <v>72290</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152">
+        <v>73100</v>
+      </c>
+      <c r="C152">
+        <v>74750</v>
+      </c>
+      <c r="D152">
+        <v>76750</v>
+      </c>
+      <c r="E152">
+        <v>79480</v>
+      </c>
+      <c r="F152">
+        <v>80350</v>
+      </c>
+      <c r="G152">
+        <v>82750</v>
+      </c>
+      <c r="H152">
+        <v>84690</v>
+      </c>
+      <c r="I152">
+        <v>87410</v>
+      </c>
+      <c r="J152">
+        <v>80940</v>
+      </c>
+      <c r="K152">
+        <v>89950</v>
+      </c>
+      <c r="L152">
+        <v>94580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157">
+        <v>21280</v>
+      </c>
+      <c r="C157">
+        <v>21540</v>
+      </c>
+      <c r="D157">
+        <v>22040</v>
+      </c>
+      <c r="E157">
+        <v>22870</v>
+      </c>
+      <c r="F157">
+        <v>23830</v>
+      </c>
+      <c r="G157">
+        <v>24790</v>
+      </c>
+      <c r="H157">
+        <v>25820</v>
+      </c>
+      <c r="I157">
+        <v>26930</v>
+      </c>
+      <c r="J157">
+        <v>29070</v>
+      </c>
+      <c r="K157">
+        <v>30390</v>
+      </c>
+      <c r="L157">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158">
+        <v>25160</v>
+      </c>
+      <c r="C158">
+        <v>25500</v>
+      </c>
+      <c r="D158">
+        <v>26080</v>
+      </c>
+      <c r="E158">
+        <v>26860</v>
+      </c>
+      <c r="F158">
+        <v>27580</v>
+      </c>
+      <c r="G158">
+        <v>28400</v>
+      </c>
+      <c r="H158">
+        <v>29460</v>
+      </c>
+      <c r="I158">
+        <v>30360</v>
+      </c>
+      <c r="J158">
+        <v>30200</v>
+      </c>
+      <c r="K158">
+        <v>35330</v>
+      </c>
+      <c r="L158">
+        <v>36780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159">
+        <v>29610</v>
+      </c>
+      <c r="C159">
+        <v>29960</v>
+      </c>
+      <c r="D159">
+        <v>30590</v>
+      </c>
+      <c r="E159">
+        <v>31540</v>
+      </c>
+      <c r="F159">
+        <v>32480</v>
+      </c>
+      <c r="G159">
+        <v>33610</v>
+      </c>
+      <c r="H159">
+        <v>34800</v>
+      </c>
+      <c r="I159">
+        <v>35850</v>
+      </c>
+      <c r="J159">
+        <v>37190</v>
+      </c>
+      <c r="K159">
+        <v>38270</v>
+      </c>
+      <c r="L159">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160">
+        <v>35600</v>
+      </c>
+      <c r="C160">
+        <v>36070</v>
+      </c>
+      <c r="D160">
+        <v>36800</v>
+      </c>
+      <c r="E160">
+        <v>37760</v>
+      </c>
+      <c r="F160">
+        <v>38340</v>
+      </c>
+      <c r="G160">
+        <v>39190</v>
+      </c>
+      <c r="H160">
+        <v>40270</v>
+      </c>
+      <c r="I160">
+        <v>41280</v>
+      </c>
+      <c r="J160">
+        <v>43490</v>
+      </c>
+      <c r="K160">
+        <v>45360</v>
+      </c>
+      <c r="L160">
+        <v>47220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161">
+        <v>41910</v>
+      </c>
+      <c r="C161">
+        <v>42760</v>
+      </c>
+      <c r="D161">
+        <v>43880</v>
+      </c>
+      <c r="E161">
+        <v>45310</v>
+      </c>
+      <c r="F161">
+        <v>45900</v>
+      </c>
+      <c r="G161">
+        <v>47250</v>
+      </c>
+      <c r="H161">
+        <v>48720</v>
+      </c>
+      <c r="I161">
+        <v>50580</v>
+      </c>
+      <c r="J161">
+        <v>48170</v>
+      </c>
+      <c r="K161">
+        <v>51710</v>
+      </c>
+      <c r="L161">
+        <v>56480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166">
+        <v>30660</v>
+      </c>
+      <c r="C166">
+        <v>31170</v>
+      </c>
+      <c r="D166">
+        <v>31410</v>
+      </c>
+      <c r="E166">
+        <v>31800</v>
+      </c>
+      <c r="F166">
+        <v>32180</v>
+      </c>
+      <c r="G166">
+        <v>32940</v>
+      </c>
+      <c r="H166">
+        <v>33410</v>
+      </c>
+      <c r="I166">
+        <v>33810</v>
+      </c>
+      <c r="J166">
+        <v>37020</v>
+      </c>
+      <c r="K166">
+        <v>37440</v>
+      </c>
+      <c r="L166">
+        <v>38470</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167">
+        <v>38020</v>
+      </c>
+      <c r="C167">
+        <v>38470</v>
+      </c>
+      <c r="D167">
+        <v>38990</v>
+      </c>
+      <c r="E167">
+        <v>39570</v>
+      </c>
+      <c r="F167">
+        <v>40320</v>
+      </c>
+      <c r="G167">
+        <v>41260</v>
+      </c>
+      <c r="H167">
+        <v>42180</v>
+      </c>
+      <c r="I167">
+        <v>42790</v>
+      </c>
+      <c r="J167">
+        <v>46900</v>
+      </c>
+      <c r="K167">
+        <v>47200</v>
+      </c>
+      <c r="L167">
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168">
+        <v>50510</v>
+      </c>
+      <c r="C168">
+        <v>51110</v>
+      </c>
+      <c r="D168">
+        <v>51880</v>
+      </c>
+      <c r="E168">
+        <v>52720</v>
+      </c>
+      <c r="F168">
+        <v>54110</v>
+      </c>
+      <c r="G168">
+        <v>55190</v>
+      </c>
+      <c r="H168">
+        <v>56180</v>
+      </c>
+      <c r="I168">
+        <v>56900</v>
+      </c>
+      <c r="J168">
+        <v>60040</v>
+      </c>
+      <c r="K168">
+        <v>60240</v>
+      </c>
+      <c r="L168">
+        <v>61590</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169">
+        <v>66360</v>
+      </c>
+      <c r="C169">
+        <v>67370</v>
+      </c>
+      <c r="D169">
+        <v>68540</v>
+      </c>
+      <c r="E169">
+        <v>69670</v>
+      </c>
+      <c r="F169">
+        <v>71430</v>
+      </c>
+      <c r="G169">
+        <v>72780</v>
+      </c>
+      <c r="H169">
+        <v>73940</v>
+      </c>
+      <c r="I169">
+        <v>75380</v>
+      </c>
+      <c r="J169">
+        <v>77350</v>
+      </c>
+      <c r="K169">
+        <v>78210</v>
+      </c>
+      <c r="L169">
+        <v>80260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170">
+        <v>83860</v>
+      </c>
+      <c r="C170">
+        <v>85590</v>
+      </c>
+      <c r="D170">
+        <v>88130</v>
+      </c>
+      <c r="E170">
+        <v>90420</v>
+      </c>
+      <c r="F170">
+        <v>92690</v>
+      </c>
+      <c r="G170">
+        <v>94620</v>
+      </c>
+      <c r="H170">
+        <v>96580</v>
+      </c>
+      <c r="I170">
+        <v>98720</v>
+      </c>
+      <c r="J170">
+        <v>99800</v>
+      </c>
+      <c r="K170">
+        <v>102300</v>
+      </c>
+      <c r="L170">
+        <v>104180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175">
+        <v>31300</v>
+      </c>
+      <c r="C175">
+        <v>31640</v>
+      </c>
+      <c r="D175">
+        <v>32040</v>
+      </c>
+      <c r="E175">
+        <v>32510</v>
+      </c>
+      <c r="F175">
+        <v>32970</v>
+      </c>
+      <c r="G175">
+        <v>33680</v>
+      </c>
+      <c r="H175">
+        <v>34560</v>
+      </c>
+      <c r="I175">
+        <v>35570</v>
+      </c>
+      <c r="J175">
+        <v>37150</v>
+      </c>
+      <c r="K175">
+        <v>40490</v>
+      </c>
+      <c r="L175">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176">
+        <v>35340</v>
+      </c>
+      <c r="C176">
+        <v>35780</v>
+      </c>
+      <c r="D176">
+        <v>36300</v>
+      </c>
+      <c r="E176">
+        <v>37040</v>
+      </c>
+      <c r="F176">
+        <v>38010</v>
+      </c>
+      <c r="G176">
+        <v>39470</v>
+      </c>
+      <c r="H176">
+        <v>40810</v>
+      </c>
+      <c r="I176">
+        <v>42060</v>
+      </c>
+      <c r="J176">
+        <v>46410</v>
+      </c>
+      <c r="K176">
+        <v>47800</v>
+      </c>
+      <c r="L176">
+        <v>50640</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177">
+        <v>41920</v>
+      </c>
+      <c r="C177">
+        <v>42490</v>
+      </c>
+      <c r="D177">
+        <v>43170</v>
+      </c>
+      <c r="E177">
+        <v>44090</v>
+      </c>
+      <c r="F177">
+        <v>45030</v>
+      </c>
+      <c r="G177">
+        <v>46240</v>
+      </c>
+      <c r="H177">
+        <v>47480</v>
+      </c>
+      <c r="I177">
+        <v>48820</v>
+      </c>
+      <c r="J177">
+        <v>48070</v>
+      </c>
+      <c r="K177">
+        <v>54620</v>
+      </c>
+      <c r="L177">
+        <v>59730</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178">
+        <v>48920</v>
+      </c>
+      <c r="C178">
+        <v>49450</v>
+      </c>
+      <c r="D178">
+        <v>50160</v>
+      </c>
+      <c r="E178">
+        <v>51220</v>
+      </c>
+      <c r="F178">
+        <v>52220</v>
+      </c>
+      <c r="G178">
+        <v>54110</v>
+      </c>
+      <c r="H178">
+        <v>56040</v>
+      </c>
+      <c r="I178">
+        <v>57860</v>
+      </c>
+      <c r="J178">
+        <v>59770</v>
+      </c>
+      <c r="K178">
+        <v>62110</v>
+      </c>
+      <c r="L178">
+        <v>67140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179">
+        <v>58020</v>
+      </c>
+      <c r="C179">
+        <v>58710</v>
+      </c>
+      <c r="D179">
+        <v>59510</v>
+      </c>
+      <c r="E179">
+        <v>60420</v>
+      </c>
+      <c r="F179">
+        <v>61030</v>
+      </c>
+      <c r="G179">
+        <v>62160</v>
+      </c>
+      <c r="H179">
+        <v>63360</v>
+      </c>
+      <c r="I179">
+        <v>65520</v>
+      </c>
+      <c r="J179">
+        <v>63790</v>
+      </c>
+      <c r="K179">
+        <v>72650</v>
+      </c>
+      <c r="L179">
+        <v>77870</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184">
+        <v>17010</v>
+      </c>
+      <c r="C184">
+        <v>17160</v>
+      </c>
+      <c r="D184">
+        <v>17620</v>
+      </c>
+      <c r="E184">
+        <v>17930</v>
+      </c>
+      <c r="F184">
+        <v>18170</v>
+      </c>
+      <c r="G184">
+        <v>17980</v>
+      </c>
+      <c r="H184">
+        <v>18420</v>
+      </c>
+      <c r="I184">
+        <v>18840</v>
+      </c>
+      <c r="J184">
+        <v>20860</v>
+      </c>
+      <c r="K184">
+        <v>21800</v>
+      </c>
+      <c r="L184">
+        <v>23520</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185">
+        <v>18680</v>
+      </c>
+      <c r="C185">
+        <v>18680</v>
+      </c>
+      <c r="D185">
+        <v>19150</v>
+      </c>
+      <c r="E185">
+        <v>19550</v>
+      </c>
+      <c r="F185">
+        <v>20200</v>
+      </c>
+      <c r="G185">
+        <v>20130</v>
+      </c>
+      <c r="H185">
+        <v>20900</v>
+      </c>
+      <c r="I185">
+        <v>21520</v>
+      </c>
+      <c r="J185">
+        <v>23960</v>
+      </c>
+      <c r="K185">
+        <v>27400</v>
+      </c>
+      <c r="L185">
+        <v>28850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186">
+        <v>23140</v>
+      </c>
+      <c r="C186">
+        <v>23120</v>
+      </c>
+      <c r="D186">
+        <v>23660</v>
+      </c>
+      <c r="E186">
+        <v>24260</v>
+      </c>
+      <c r="F186">
+        <v>24850</v>
+      </c>
+      <c r="G186">
+        <v>24730</v>
+      </c>
+      <c r="H186">
+        <v>26090</v>
+      </c>
+      <c r="I186">
+        <v>27380</v>
+      </c>
+      <c r="J186">
+        <v>29670</v>
+      </c>
+      <c r="K186">
+        <v>33290</v>
+      </c>
+      <c r="L186">
+        <v>34970</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187">
+        <v>31110</v>
+      </c>
+      <c r="C187">
+        <v>32170</v>
+      </c>
+      <c r="D187">
+        <v>33170</v>
+      </c>
+      <c r="E187">
+        <v>34170</v>
+      </c>
+      <c r="F187">
+        <v>35100</v>
+      </c>
+      <c r="G187">
+        <v>34910</v>
+      </c>
+      <c r="H187">
+        <v>36730</v>
+      </c>
+      <c r="I187">
+        <v>37970</v>
+      </c>
+      <c r="J187">
+        <v>38790</v>
+      </c>
+      <c r="K187">
+        <v>45710</v>
+      </c>
+      <c r="L187">
+        <v>47420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188">
+        <v>44220</v>
+      </c>
+      <c r="C188">
+        <v>45840</v>
+      </c>
+      <c r="D188">
+        <v>47410</v>
+      </c>
+      <c r="E188">
+        <v>49050</v>
+      </c>
+      <c r="F188">
+        <v>50670</v>
+      </c>
+      <c r="G188">
+        <v>50110</v>
+      </c>
+      <c r="H188">
+        <v>51870</v>
+      </c>
+      <c r="I188">
+        <v>53410</v>
+      </c>
+      <c r="J188">
+        <v>59070</v>
+      </c>
+      <c r="K188">
+        <v>60080</v>
+      </c>
+      <c r="L188">
+        <v>63310</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>45</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193">
+        <v>29590</v>
+      </c>
+      <c r="C193">
+        <v>29470</v>
+      </c>
+      <c r="D193">
+        <v>29680</v>
+      </c>
+      <c r="E193">
+        <v>30430</v>
+      </c>
+      <c r="F193">
+        <v>31470</v>
+      </c>
+      <c r="G193">
+        <v>32100</v>
+      </c>
+      <c r="H193">
+        <v>32690</v>
+      </c>
+      <c r="I193">
+        <v>33460</v>
+      </c>
+      <c r="J193">
+        <v>36700</v>
+      </c>
+      <c r="K193">
+        <v>37250</v>
+      </c>
+      <c r="L193">
+        <v>38690</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194">
+        <v>37530</v>
+      </c>
+      <c r="C194">
+        <v>37790</v>
+      </c>
+      <c r="D194">
+        <v>37860</v>
+      </c>
+      <c r="E194">
+        <v>38530</v>
+      </c>
+      <c r="F194">
+        <v>39470</v>
+      </c>
+      <c r="G194">
+        <v>40250</v>
+      </c>
+      <c r="H194">
+        <v>41230</v>
+      </c>
+      <c r="I194">
+        <v>42330</v>
+      </c>
+      <c r="J194">
+        <v>46590</v>
+      </c>
+      <c r="K194">
+        <v>46630</v>
+      </c>
+      <c r="L194">
+        <v>47810</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195">
+        <v>50180</v>
+      </c>
+      <c r="C195">
+        <v>50660</v>
+      </c>
+      <c r="D195">
+        <v>50620</v>
+      </c>
+      <c r="E195">
+        <v>51450</v>
+      </c>
+      <c r="F195">
+        <v>52590</v>
+      </c>
+      <c r="G195">
+        <v>53910</v>
+      </c>
+      <c r="H195">
+        <v>55160</v>
+      </c>
+      <c r="I195">
+        <v>56330</v>
+      </c>
+      <c r="J195">
+        <v>59880</v>
+      </c>
+      <c r="K195">
+        <v>60090</v>
+      </c>
+      <c r="L195">
+        <v>61550</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196">
+        <v>67150</v>
+      </c>
+      <c r="C196">
+        <v>68160</v>
+      </c>
+      <c r="D196">
+        <v>68270</v>
+      </c>
+      <c r="E196">
+        <v>68770</v>
+      </c>
+      <c r="F196">
+        <v>69710</v>
+      </c>
+      <c r="G196">
+        <v>71140</v>
+      </c>
+      <c r="H196">
+        <v>73380</v>
+      </c>
+      <c r="I196">
+        <v>75370</v>
+      </c>
+      <c r="J196">
+        <v>77890</v>
+      </c>
+      <c r="K196">
+        <v>78960</v>
+      </c>
+      <c r="L196">
+        <v>80190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>50</v>
+      </c>
+      <c r="B197">
+        <v>86120</v>
+      </c>
+      <c r="C197">
+        <v>88160</v>
+      </c>
+      <c r="D197">
+        <v>89720</v>
+      </c>
+      <c r="E197">
+        <v>90530</v>
+      </c>
+      <c r="F197">
+        <v>91810</v>
+      </c>
+      <c r="G197">
+        <v>93700</v>
+      </c>
+      <c r="H197">
+        <v>97170</v>
+      </c>
+      <c r="I197">
+        <v>98990</v>
+      </c>
+      <c r="J197">
+        <v>99920</v>
+      </c>
+      <c r="K197">
+        <v>101190</v>
+      </c>
+      <c r="L197">
+        <v>103140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202">
+        <v>20640</v>
+      </c>
+      <c r="C202">
+        <v>20730</v>
+      </c>
+      <c r="D202">
+        <v>20950</v>
+      </c>
+      <c r="E202">
+        <v>21370</v>
+      </c>
+      <c r="F202">
+        <v>22000</v>
+      </c>
+      <c r="G202">
+        <v>22740</v>
+      </c>
+      <c r="H202">
+        <v>24120</v>
+      </c>
+      <c r="I202">
+        <v>25400</v>
+      </c>
+      <c r="J202">
+        <v>28740</v>
+      </c>
+      <c r="K202">
+        <v>29640</v>
+      </c>
+      <c r="L202">
+        <v>32720</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>47</v>
+      </c>
+      <c r="B203">
+        <v>24440</v>
+      </c>
+      <c r="C203">
+        <v>24470</v>
+      </c>
+      <c r="D203">
+        <v>24760</v>
+      </c>
+      <c r="E203">
+        <v>25170</v>
+      </c>
+      <c r="F203">
+        <v>25900</v>
+      </c>
+      <c r="G203">
+        <v>26750</v>
+      </c>
+      <c r="H203">
+        <v>27980</v>
+      </c>
+      <c r="I203">
+        <v>29090</v>
+      </c>
+      <c r="J203">
+        <v>29460</v>
+      </c>
+      <c r="K203">
+        <v>34590</v>
+      </c>
+      <c r="L203">
+        <v>36290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204">
+        <v>29650</v>
+      </c>
+      <c r="C204">
+        <v>29810</v>
+      </c>
+      <c r="D204">
+        <v>30410</v>
+      </c>
+      <c r="E204">
+        <v>30920</v>
+      </c>
+      <c r="F204">
+        <v>31750</v>
+      </c>
+      <c r="G204">
+        <v>32700</v>
+      </c>
+      <c r="H204">
+        <v>33950</v>
+      </c>
+      <c r="I204">
+        <v>35100</v>
+      </c>
+      <c r="J204">
+        <v>36740</v>
+      </c>
+      <c r="K204">
+        <v>37790</v>
+      </c>
+      <c r="L204">
+        <v>40300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205">
+        <v>36270</v>
+      </c>
+      <c r="C205">
+        <v>36600</v>
+      </c>
+      <c r="D205">
+        <v>37280</v>
+      </c>
+      <c r="E205">
+        <v>37780</v>
+      </c>
+      <c r="F205">
+        <v>38540</v>
+      </c>
+      <c r="G205">
+        <v>39290</v>
+      </c>
+      <c r="H205">
+        <v>40440</v>
+      </c>
+      <c r="I205">
+        <v>41660</v>
+      </c>
+      <c r="J205">
+        <v>45850</v>
+      </c>
+      <c r="K205">
+        <v>45710</v>
+      </c>
+      <c r="L205">
+        <v>47680</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206">
+        <v>43230</v>
+      </c>
+      <c r="C206">
+        <v>43900</v>
+      </c>
+      <c r="D206">
+        <v>45030</v>
+      </c>
+      <c r="E206">
+        <v>45710</v>
+      </c>
+      <c r="F206">
+        <v>46980</v>
+      </c>
+      <c r="G206">
+        <v>48010</v>
+      </c>
+      <c r="H206">
+        <v>49130</v>
+      </c>
+      <c r="I206">
+        <v>50430</v>
+      </c>
+      <c r="J206">
+        <v>47580</v>
+      </c>
+      <c r="K206">
+        <v>50640</v>
+      </c>
+      <c r="L206">
+        <v>57130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
